--- a/xlsx/内布拉斯加_intext.xlsx
+++ b/xlsx/内布拉斯加_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="727">
   <si>
     <t>内布拉斯加</t>
   </si>
@@ -26,28 +26,28 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0_(%E9%9B%BB%E5%BD%B1)</t>
   </si>
   <si>
-    <t>內布拉斯加 (電影)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_内布拉斯加</t>
+    <t>内布拉斯加 (电影)</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_内布拉斯加</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E%E5%B7%9E%E6%97%97</t>
   </si>
   <si>
-    <t>內布拉斯加州州旗</t>
+    <t>内布拉斯加州州旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Nebraska</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BB%9B%E6%AF%94%C2%B7%E8%8F%B2%E5%B8%8C%E7%88%BE</t>
   </si>
   <si>
-    <t>黛比·菲希爾</t>
+    <t>黛比·菲希尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%C2%B7%E8%96%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>本·薩斯</t>
+    <t>本·萨斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -215,13 +215,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%B8%AD%E8%A5%BF%E9%83%A8</t>
   </si>
   <si>
-    <t>美國中西部</t>
+    <t>美国中西部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8E%9F%E4%BD%8F%E6%B0%91</t>
   </si>
   <si>
-    <t>美國原住民</t>
+    <t>美国原住民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%8B%89%E7%89%B9%E6%B2%B3</t>
@@ -233,7 +233,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B2%E6%A5%AD</t>
   </si>
   <si>
-    <t>農業</t>
+    <t>农业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8D%89%E5%8E%9F</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>南達科他州</t>
+    <t>南达科他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E5%A5%A5%E7%93%A6%E5%B7%9E</t>
@@ -269,19 +269,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%80%E4%BF%84%E6%98%8E%E5%B7%9E</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%8A%E7%96%86%E5%B8%B6</t>
   </si>
   <si>
-    <t>邊疆帶</t>
+    <t>边疆带</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%8C%E5%B8%95%E5%B8%83%E5%88%A9%E8%82%AF%E6%B2%B3</t>
@@ -365,7 +365,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8B%92%E5%B2%A1%E5%B0%8F%E5%BE%91</t>
   </si>
   <si>
-    <t>奧勒岡小徑</t>
+    <t>奥勒冈小径</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E6%9A%B4</t>
@@ -377,13 +377,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%A3%AF%E5%B1%B1%E8%84%88</t>
   </si>
   <si>
-    <t>洛磯山脈</t>
+    <t>洛矶山脉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%9A%E9%A2%A8</t>
   </si>
   <si>
-    <t>焚風</t>
+    <t>焚风</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8F%98%E6%9A%96</t>
@@ -443,79 +443,79 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1890年人口普查</t>
+    <t>美国1890年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1900年人口普查</t>
+    <t>美国1900年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1910年人口普查</t>
+    <t>美国1910年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1920年人口普查</t>
+    <t>美国1920年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1930年人口普查</t>
+    <t>美国1930年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1940年人口普查</t>
+    <t>美国1940年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1950年人口普查</t>
+    <t>美国1950年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1960年人口普查</t>
+    <t>美国1960年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1970年人口普查</t>
+    <t>美国1970年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1980年人口普查</t>
+    <t>美国1980年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2000年人口普查</t>
+    <t>美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2010年人口普查</t>
+    <t>美国2010年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9B%BD</t>
@@ -551,13 +551,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9F%E6%96%AF%E9%A0%93%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>瑟斯頓縣 (內布拉斯加州)</t>
+    <t>瑟斯顿县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E7%89%B9%E5%8B%92%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>巴特勒縣 (內布拉斯加州)</t>
+    <t>巴特勒县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%85%8B%E6%8B%89%E4%BD%95%E9%A9%AC%E5%B7%9E</t>
@@ -569,13 +569,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>北達科他州</t>
+    <t>北达科他州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E5%A5%87%E7%A7%91%E5%85%8B%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>希奇科克縣 (內布拉斯加州)</t>
+    <t>希奇科克县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E5%AE%97%E6%95%99</t>
@@ -593,13 +593,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E7%BE%A9%E5%AE%97</t>
   </si>
   <si>
-    <t>信義宗</t>
+    <t>信义宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E7%90%86%E5%AE%97</t>
   </si>
   <si>
-    <t>衛理宗</t>
+    <t>卫理宗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E4%BF%A1%E4%BC%9A</t>
@@ -611,7 +611,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E8%80%81%E6%95%99%E6%9C%83</t>
   </si>
   <si>
-    <t>長老教會</t>
+    <t>长老教会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%A4%A9%E4%B8%BB%E6%95%99</t>
@@ -623,9 +623,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%9C%E4%B8%9A</t>
   </si>
   <si>
-    <t>农业</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%89%E7%B1%B3</t>
   </si>
   <si>
@@ -665,7 +662,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%A8%8A</t>
   </si>
   <si>
-    <t>通訊</t>
+    <t>通讯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E6%8A%80%E6%9C%AF</t>
@@ -725,13 +722,13 @@
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E5%84%84%E8%90%AC%E5%AF%8C%E7%BF%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>2008年億萬富翁列表</t>
+    <t>2008年亿万富翁列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%A4%AA%E5%B9%B3%E6%B4%8B%E9%90%B5%E8%B7%AF</t>
   </si>
   <si>
-    <t>聯合太平洋鐵路</t>
+    <t>联合太平洋铁路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%A4%A7%E5%AD%A6%E6%9E%97%E8%82%AF%E5%88%86%E6%A0%A1</t>
@@ -743,7 +740,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%85%8B%E5%A4%8F%C2%B7%E5%93%88%E8%96%A9%E5%A8%81%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>波克夏·哈薩威公司</t>
+    <t>波克夏·哈萨威公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E5%B0%BC%E6%A0%BC%E6%8B%89%E9%A3%9F%E5%93%81</t>
@@ -773,13 +770,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%A4%AA%E5%B9%B3%E6%B4%8B%E9%93%81%E8%B7%AF</t>
   </si>
   <si>
-    <t>联合太平洋铁路</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E9%90%B5</t>
   </si>
   <si>
-    <t>美鐵</t>
+    <t>美铁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/80%E5%8F%B7%E5%B7%9E%E9%99%85%E5%85%AC%E8%B7%AF</t>
@@ -791,7 +785,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B7%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>州長</t>
+    <t>州长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%99%A2%E5%88%B6</t>
@@ -803,7 +797,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88</t>
   </si>
   <si>
-    <t>內布拉斯加州議會大廈</t>
+    <t>内布拉斯加州议会大厦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E6%B0%91%E5%85%AC%E6%8A%95</t>
@@ -851,7 +845,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E7%99%BB%C2%B7%E5%BC%B7%E6%A3%AE</t>
   </si>
   <si>
-    <t>林登·強森</t>
+    <t>林登·强森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%94%E6%B2%BB%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
@@ -887,19 +881,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%BE%B7%E8%89%BE%E8%98%AD_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格蘭德艾蘭 (內布拉斯加州)</t>
+    <t>格兰德艾兰 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E8%92%99%E7%89%B9_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>弗里蒙特 (內布拉斯加州)</t>
+    <t>弗里蒙特 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E5%9F%8E</t>
   </si>
   <si>
-    <t>蘇城</t>
+    <t>苏城</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Siouxland</t>
@@ -911,7 +905,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%BB%B6%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>夏延縣 (內布拉斯加州)</t>
+    <t>夏延县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%A4%A7%E5%AD%A6%E7%B3%BB%E7%BB%9F</t>
@@ -929,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%A4%A7%E5%AD%B8%E5%8D%A1%E5%B0%BC%E7%88%BE%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>內布拉斯加大學卡尼爾分校</t>
+    <t>内布拉斯加大学卡尼尔分校</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/University_of_Nebraska_Medical_Center</t>
@@ -983,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E7%91%9E%E9%A0%93%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>克瑞頓大學</t>
+    <t>克瑞顿大学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Bellevue_University</t>
@@ -1037,13 +1031,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B8%82%E7%9A%87%E5%AE%B6</t>
   </si>
   <si>
-    <t>堪薩斯市皇家</t>
+    <t>堪萨斯市皇家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%96%87%E6%8B%89%C2%B7%E5%87%AF%E5%BE%B7</t>
@@ -1055,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E5%BE%B7%C2%B7%E9%98%BF%E6%96%AF%E6%B3%B0%E7%88%BE</t>
   </si>
   <si>
-    <t>弗雷德·阿斯泰爾</t>
+    <t>弗雷德·阿斯泰尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E5%B0%BC%C2%B7%E5%8D%A1%E6%A3%AE</t>
@@ -1067,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%BE%8D%C2%B7%E7%99%BD%E8%98%AD%E5%BA%A6</t>
   </si>
   <si>
-    <t>馬龍·白蘭度</t>
+    <t>马龙·白兰度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E5%A3%AB%C2%B7%E6%9F%AF%E6%9C%AC</t>
@@ -1091,7 +1085,7 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>Template talk-內布拉斯加州</t>
+    <t>Template talk-内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%B7%9E%E4%BB%BD</t>
@@ -1115,13 +1109,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>美國地區</t>
+    <t>美国地区</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Omaha-Council_Bluffs_metropolitan_area</t>
@@ -1181,13 +1175,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E9%9D%88_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>傑靈 (內布拉斯加州)</t>
+    <t>杰灵 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E5%BE%B7%E8%89%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>格蘭德艾蘭</t>
+    <t>格兰德艾兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E6%96%AF%E5%BB%B7%E6%96%AF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1259,13 +1253,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%95%B6%E6%96%AF%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>亞當斯縣 (內布拉斯加州)</t>
+    <t>亚当斯县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E8%92%82%E6%B4%9B%E6%99%AE%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>安蒂洛普縣 (內布拉斯加州)</t>
+    <t>安蒂洛普县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%91%9F%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1277,19 +1271,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%AD%E7%B4%8D%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>班納縣 (內布拉斯加州)</t>
+    <t>班纳县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%90%8A%E6%81%A9%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布萊恩縣 (內布拉斯加州)</t>
+    <t>布莱恩县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%81%A9%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布恩縣 (內布拉斯加州)</t>
+    <t>布恩县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E5%85%8B%E6%96%AF%E6%AF%94%E7%89%B9%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1301,31 +1295,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%9A%E4%BC%8A%E5%BE%B7%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>博伊德縣 (內布拉斯加州)</t>
+    <t>博伊德县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E6%9C%97%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>布朗縣 (內布拉斯加州)</t>
+    <t>布朗县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E7%89%9B%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>水牛縣 (內布拉斯加州)</t>
+    <t>水牛县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E7%89%B9%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伯特縣 (內布拉斯加州)</t>
+    <t>伯特县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>卡斯縣 (內布拉斯加州)</t>
+    <t>卡斯县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%94%A1%E8%BE%BE%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1343,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E9%87%8C%E7%B8%A3</t>
   </si>
   <si>
-    <t>切里縣</t>
+    <t>切里县</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E8%8E%B1%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1361,13 +1355,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%AB%E5%90%8D%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>庫名縣 (內布拉斯加州)</t>
+    <t>库名县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E6%96%AF%E7%89%B9%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>卡斯特縣 (內布拉斯加州)</t>
+    <t>卡斯特县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E7%A7%91%E4%BB%96%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1391,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%9C%E7%88%BE%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>杜爾縣 (內布拉斯加州)</t>
+    <t>杜尔县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%85%8B%E6%A3%AE%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1421,19 +1415,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E7%88%BE%E8%8E%AB%E7%88%BE%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>菲爾莫爾縣 (內布拉斯加州)</t>
+    <t>菲尔莫尔县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E8%98%AD%E5%85%8B%E6%9E%97%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>富蘭克林縣 (內布拉斯加州)</t>
+    <t>富兰克林县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E8%98%AD%E8%92%82%E7%88%BE%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>弗蘭蒂爾縣 (內布拉斯加州)</t>
+    <t>弗兰蒂尔县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%8C%E5%B0%94%E7%BA%B3%E6%96%AF%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1451,13 +1445,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%99%BB%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>加登縣 (內布拉斯加州)</t>
+    <t>加登县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E8%8F%B2%E7%88%BE%E5%BE%B7%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>加菲爾德縣 (內布拉斯加州)</t>
+    <t>加菲尔德县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E6%96%AF%E5%B8%95%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1469,7 +1463,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E8%98%AD%E7%89%B9%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>格蘭特縣 (內布拉斯加州)</t>
+    <t>格兰特县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%87%8C%E5%88%A9%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1481,25 +1475,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E7%88%BE%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>霍爾縣 (內布拉斯加州)</t>
+    <t>霍尔县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%AF%86%E7%88%BE%E9%A0%93%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>漢密爾頓縣 (內布拉斯加州)</t>
+    <t>汉密尔顿县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%80%AB%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>哈倫縣 (內布拉斯加州)</t>
+    <t>哈伦县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%96%AF%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>海斯縣 (內布拉斯加州)</t>
+    <t>海斯县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E5%B0%94%E7%89%B9%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1523,25 +1517,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E4%BD%9B%E9%81%9C%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>傑佛遜縣 (內布拉斯加州)</t>
+    <t>杰佛逊县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E9%81%9C%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>約翰遜縣 (內布拉斯加州)</t>
+    <t>约翰逊县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E6%96%AF%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>基斯縣 (內布拉斯加州)</t>
+    <t>基斯县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E4%BA%9E%E5%B8%95%E5%93%88%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>基亞帕哈縣 (內布拉斯加州)</t>
+    <t>基亚帕哈县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%8D%9A%E5%B0%94%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1553,19 +1547,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%85%8B%E6%96%AF%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>諾克斯縣 (內布拉斯加州)</t>
+    <t>诺克斯县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%AD%E9%96%8B%E6%96%AF%E7%89%B9%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蘭開斯特縣 (內布拉斯加州)</t>
+    <t>兰开斯特县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E6%A0%B9%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>洛根縣 (內布拉斯加州)</t>
+    <t>洛根县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%99%AE%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1577,7 +1571,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A5%E8%BF%AA%E9%81%9C%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>麥迪遜縣 (內布拉斯加州)</t>
+    <t>麦迪逊县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%85%8B%E5%BC%97%E6%A3%AE%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1589,7 +1583,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E9%87%8C%E5%85%8B%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>梅里克縣 (內布拉斯加州)</t>
+    <t>梅里克县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%8B%92%E5%B0%94%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1601,37 +1595,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>南斯縣 (內布拉斯加州)</t>
+    <t>南斯县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E9%A6%AC%E5%93%88%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>尼馬哈縣 (內布拉斯加州)</t>
+    <t>尼马哈县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%A7%91%E7%88%BE%E6%96%AF%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>納科爾斯縣 (內布拉斯加州)</t>
+    <t>纳科尔斯县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E6%89%98%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>奧托縣 (內布拉斯加州)</t>
+    <t>奥托县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%B0%BC%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>波尼縣 (內布拉斯加州)</t>
+    <t>波尼县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%80%E9%87%91%E6%96%AF%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>珀金斯縣 (內布拉斯加州)</t>
+    <t>珀金斯县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%B9%E5%B0%94%E6%99%AE%E6%96%AF%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1649,13 +1643,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%8B%89%E7%89%B9%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>普拉特縣 (內布拉斯加州)</t>
+    <t>普拉特县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E7%88%BE%E5%85%8B%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>波爾克縣 (內布拉斯加州)</t>
+    <t>波尔克县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%BE%B7%E5%A8%81%E6%B4%9B%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1667,7 +1661,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%90%86%E6%9F%A5%E6%A3%AE%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>理查森縣 (內布拉斯加州)</t>
+    <t>理查森县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%85%8B%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1691,7 +1685,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%91%E5%BE%B7%E6%96%AF%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>桑德斯縣 (內布拉斯加州)</t>
+    <t>桑德斯县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E5%8E%84%E5%BE%B7%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1709,37 +1703,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%9D%E7%88%BE%E6%9B%BC%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>謝爾曼縣 (內布拉斯加州)</t>
+    <t>谢尔曼县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>蘇縣 (內布拉斯加州)</t>
+    <t>苏县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E9%A0%93%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>斯坦頓縣 (內布拉斯加州)</t>
+    <t>斯坦顿县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E8%80%B6%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>塞耶縣 (內布拉斯加州)</t>
+    <t>塞耶县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A6%AC%E6%96%AF%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>托馬斯縣 (內布拉斯加州)</t>
+    <t>托马斯县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%93%A6%E5%88%A9%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>瓦利縣 (內布拉斯加州)</t>
+    <t>瓦利县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1751,7 +1745,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E6%81%A9%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>韋恩縣 (內布拉斯加州)</t>
+    <t>韦恩县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E4%BC%AF%E6%96%AF%E7%89%B9%E5%8E%BF_(%E5%86%85%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
@@ -1763,19 +1757,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E5%8B%92%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>惠勒縣 (內布拉斯加州)</t>
+    <t>惠勒县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E5%85%8B%E7%B8%A3_(%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E)</t>
   </si>
   <si>
-    <t>約克縣 (內布拉斯加州)</t>
+    <t>约克县 (内布拉斯加州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -1793,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -1829,7 +1823,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -1883,7 +1877,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>麻薩諸塞州</t>
+    <t>麻萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E6%AD%87%E6%A0%B9%E5%B7%9E</t>
@@ -1895,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -1949,9 +1943,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>北达科他州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
   </si>
   <si>
@@ -1961,7 +1952,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -1979,7 +1970,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
@@ -1991,9 +1982,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%BE%BE%E7%A7%91%E4%BB%96%E5%B7%9E</t>
   </si>
   <si>
-    <t>南达科他州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
@@ -2027,7 +2015,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -2039,7 +2027,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -2051,19 +2039,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -2081,7 +2069,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -2093,7 +2081,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -2105,7 +2093,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -2117,25 +2105,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -2165,7 +2153,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2183,7 +2171,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2195,7 +2183,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -5507,7 +5495,7 @@
         <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5533,10 +5521,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>202</v>
+      </c>
+      <c r="F103" t="s">
         <v>203</v>
-      </c>
-      <c r="F103" t="s">
-        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5562,10 +5550,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>204</v>
+      </c>
+      <c r="F104" t="s">
         <v>205</v>
-      </c>
-      <c r="F104" t="s">
-        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5591,10 +5579,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>206</v>
+      </c>
+      <c r="F105" t="s">
         <v>207</v>
-      </c>
-      <c r="F105" t="s">
-        <v>208</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5620,10 +5608,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>208</v>
+      </c>
+      <c r="F106" t="s">
         <v>209</v>
-      </c>
-      <c r="F106" t="s">
-        <v>210</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5649,10 +5637,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>210</v>
+      </c>
+      <c r="F107" t="s">
         <v>211</v>
-      </c>
-      <c r="F107" t="s">
-        <v>212</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -5678,10 +5666,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>212</v>
+      </c>
+      <c r="F108" t="s">
         <v>213</v>
-      </c>
-      <c r="F108" t="s">
-        <v>214</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5707,10 +5695,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>214</v>
+      </c>
+      <c r="F109" t="s">
         <v>215</v>
-      </c>
-      <c r="F109" t="s">
-        <v>216</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5736,10 +5724,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>216</v>
+      </c>
+      <c r="F110" t="s">
         <v>217</v>
-      </c>
-      <c r="F110" t="s">
-        <v>218</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5765,10 +5753,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>218</v>
+      </c>
+      <c r="F111" t="s">
         <v>219</v>
-      </c>
-      <c r="F111" t="s">
-        <v>220</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5794,10 +5782,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>220</v>
+      </c>
+      <c r="F112" t="s">
         <v>221</v>
-      </c>
-      <c r="F112" t="s">
-        <v>222</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5823,10 +5811,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>222</v>
+      </c>
+      <c r="F113" t="s">
         <v>223</v>
-      </c>
-      <c r="F113" t="s">
-        <v>224</v>
       </c>
       <c r="G113" t="n">
         <v>3</v>
@@ -5852,10 +5840,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>224</v>
+      </c>
+      <c r="F114" t="s">
         <v>225</v>
-      </c>
-      <c r="F114" t="s">
-        <v>226</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5881,10 +5869,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>226</v>
+      </c>
+      <c r="F115" t="s">
         <v>227</v>
-      </c>
-      <c r="F115" t="s">
-        <v>228</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5910,10 +5898,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>228</v>
+      </c>
+      <c r="F116" t="s">
         <v>229</v>
-      </c>
-      <c r="F116" t="s">
-        <v>230</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5939,10 +5927,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5968,10 +5956,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5997,10 +5985,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -6026,10 +6014,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>3</v>
@@ -6055,10 +6043,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -6084,10 +6072,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -6113,10 +6101,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>2</v>
@@ -6142,10 +6130,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>2</v>
@@ -6171,10 +6159,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -6200,10 +6188,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -6229,10 +6217,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F127" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -6258,10 +6246,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F128" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -6287,10 +6275,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F129" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>24</v>
@@ -6316,10 +6304,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F130" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G130" t="n">
         <v>6</v>
@@ -6345,10 +6333,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F131" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G131" t="n">
         <v>4</v>
@@ -6374,10 +6362,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F132" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6403,10 +6391,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F133" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6432,10 +6420,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F134" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6461,10 +6449,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G135" t="n">
         <v>3</v>
@@ -6490,10 +6478,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F136" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6519,10 +6507,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F137" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G137" t="n">
         <v>6</v>
@@ -6548,10 +6536,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6577,10 +6565,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F139" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6606,10 +6594,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6635,10 +6623,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6664,10 +6652,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F142" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6693,10 +6681,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F143" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6722,10 +6710,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F144" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>5</v>
@@ -6751,10 +6739,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F145" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6780,10 +6768,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F146" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>3</v>
@@ -6809,10 +6797,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F147" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -6838,10 +6826,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F148" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6867,10 +6855,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F149" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -6896,10 +6884,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F150" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6925,10 +6913,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F151" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -6954,10 +6942,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>238</v>
+      </c>
+      <c r="F152" t="s">
         <v>239</v>
-      </c>
-      <c r="F152" t="s">
-        <v>240</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6983,10 +6971,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -7012,10 +7000,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7041,10 +7029,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -7070,10 +7058,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -7099,10 +7087,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -7128,10 +7116,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>2</v>
@@ -7157,10 +7145,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -7186,10 +7174,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -7215,10 +7203,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -7244,10 +7232,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -7273,10 +7261,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7302,10 +7290,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7331,10 +7319,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -7360,10 +7348,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7389,10 +7377,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7418,10 +7406,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -7447,10 +7435,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7476,10 +7464,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7505,10 +7493,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7534,10 +7522,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7563,10 +7551,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7592,10 +7580,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F174" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7621,10 +7609,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F175" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7650,10 +7638,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F176" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7679,10 +7667,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F177" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7708,10 +7696,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F178" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7737,10 +7725,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F179" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7766,10 +7754,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>3</v>
@@ -7795,10 +7783,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F181" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>4</v>
@@ -7824,10 +7812,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F182" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>153</v>
@@ -7853,10 +7841,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F183" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7882,10 +7870,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F184" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7911,10 +7899,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F185" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G185" t="n">
         <v>4</v>
@@ -7940,10 +7928,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G186" t="n">
         <v>19</v>
@@ -7969,10 +7957,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7998,10 +7986,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8027,10 +8015,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8056,10 +8044,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -8085,10 +8073,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8114,10 +8102,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F192" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8143,10 +8131,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F193" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -8172,10 +8160,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F194" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8201,10 +8189,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F195" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8230,10 +8218,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F196" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8259,10 +8247,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F197" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8288,10 +8276,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F198" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8317,10 +8305,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F199" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8346,10 +8334,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F200" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G200" t="n">
         <v>2</v>
@@ -8375,10 +8363,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F201" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G201" t="n">
         <v>2</v>
@@ -8404,10 +8392,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F202" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8433,10 +8421,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F203" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8462,10 +8450,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F204" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8491,10 +8479,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F205" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G205" t="n">
         <v>2</v>
@@ -8549,10 +8537,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>2</v>
@@ -8578,10 +8566,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>2</v>
@@ -8607,10 +8595,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>2</v>
@@ -8636,10 +8624,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8665,10 +8653,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F211" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G211" t="n">
         <v>11</v>
@@ -8694,10 +8682,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F212" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8723,10 +8711,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F213" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8752,10 +8740,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F214" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8781,10 +8769,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F215" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8810,10 +8798,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F216" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8839,10 +8827,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F217" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8868,10 +8856,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F218" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8897,10 +8885,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F219" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8926,10 +8914,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F220" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8955,10 +8943,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F221" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8984,10 +8972,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F222" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9042,10 +9030,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F224" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G224" t="n">
         <v>2</v>
@@ -9071,10 +9059,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F225" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9100,10 +9088,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9129,10 +9117,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9158,10 +9146,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F228" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9187,10 +9175,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F229" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9216,10 +9204,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F230" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9245,10 +9233,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F231" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9274,10 +9262,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F232" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9303,10 +9291,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F233" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G233" t="n">
         <v>3</v>
@@ -9332,10 +9320,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F234" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9361,10 +9349,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F235" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9390,10 +9378,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F236" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9419,10 +9407,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F237" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9448,10 +9436,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F238" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9477,10 +9465,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F239" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9506,10 +9494,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F240" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9535,10 +9523,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F241" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9564,10 +9552,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F242" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9593,10 +9581,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F243" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9622,10 +9610,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F244" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9651,10 +9639,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F245" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9680,10 +9668,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F246" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9709,10 +9697,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F247" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9738,10 +9726,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F248" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9767,10 +9755,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F249" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9796,10 +9784,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F250" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G250" t="n">
         <v>1</v>
@@ -9825,10 +9813,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F251" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9854,10 +9842,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="F252" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9883,10 +9871,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="F253" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9912,10 +9900,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F254" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9970,10 +9958,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9999,10 +9987,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10028,10 +10016,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10057,10 +10045,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10086,10 +10074,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F260" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -10115,10 +10103,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F261" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10144,10 +10132,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F262" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10173,10 +10161,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F263" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10202,10 +10190,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F264" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -10231,10 +10219,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F265" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -10260,10 +10248,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F266" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -10289,10 +10277,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F267" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10318,10 +10306,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F268" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10347,10 +10335,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F269" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10376,10 +10364,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F270" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10405,10 +10393,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="F271" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10434,10 +10422,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F272" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10463,10 +10451,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F273" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10492,10 +10480,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F274" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10521,10 +10509,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="F275" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10550,10 +10538,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="F276" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10579,10 +10567,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F277" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10608,10 +10596,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="F278" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10637,10 +10625,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="F279" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10666,10 +10654,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="F280" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="G280" t="n">
         <v>4</v>
@@ -10695,10 +10683,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="F281" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10724,10 +10712,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="F282" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10753,10 +10741,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="F283" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10782,10 +10770,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="F284" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10811,10 +10799,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="F285" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10840,10 +10828,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F286" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -10869,10 +10857,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F287" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -10898,10 +10886,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F288" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10927,10 +10915,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F289" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10956,10 +10944,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F290" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10985,10 +10973,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F291" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="G291" t="n">
         <v>5</v>
@@ -11014,10 +11002,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F292" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11043,10 +11031,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="F293" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11072,10 +11060,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="F294" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11130,10 +11118,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11159,10 +11147,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F297" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="G297" t="n">
         <v>3</v>
@@ -11188,10 +11176,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="F298" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11217,10 +11205,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="F299" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11246,10 +11234,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="F300" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11275,10 +11263,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="F301" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11304,10 +11292,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="F302" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11333,10 +11321,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="F303" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11362,10 +11350,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="F304" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11391,10 +11379,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="F305" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11420,10 +11408,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="F306" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11449,10 +11437,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11507,10 +11495,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="F309" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11536,10 +11524,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="F310" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11565,10 +11553,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="F311" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="G311" t="n">
         <v>2</v>
@@ -11594,10 +11582,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F312" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11623,10 +11611,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="F313" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11652,10 +11640,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F314" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11681,10 +11669,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="F315" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11710,10 +11698,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="F316" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11797,10 +11785,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="F319" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -11826,10 +11814,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="F320" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -11855,10 +11843,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="F321" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -11884,10 +11872,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="F322" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -11913,10 +11901,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="F323" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G323" t="n">
         <v>1</v>
@@ -11942,10 +11930,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="F324" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -11971,10 +11959,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="F325" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12000,10 +11988,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="F326" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="G326" t="n">
         <v>2</v>
@@ -12058,10 +12046,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F328" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12087,10 +12075,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="F329" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12116,10 +12104,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="F330" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="G330" t="n">
         <v>1</v>
@@ -12145,10 +12133,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="F331" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="G331" t="n">
         <v>1</v>
@@ -12174,10 +12162,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="F332" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12203,10 +12191,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="F333" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12232,10 +12220,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="F334" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12261,10 +12249,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="F335" t="s">
-        <v>644</v>
+        <v>184</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12290,10 +12278,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F336" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12319,10 +12307,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="F337" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="G337" t="n">
         <v>1</v>
@@ -12348,10 +12336,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="F338" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12377,10 +12365,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F339" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12406,10 +12394,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="F340" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12435,10 +12423,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="F341" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12464,10 +12452,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F342" t="s">
-        <v>658</v>
+        <v>78</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12493,10 +12481,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="F343" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12522,10 +12510,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="F344" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12551,10 +12539,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F345" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="G345" t="n">
         <v>1</v>
@@ -12580,10 +12568,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F346" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="G346" t="n">
         <v>1</v>
@@ -12609,10 +12597,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F347" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="G347" t="n">
         <v>2</v>
@@ -12638,10 +12626,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="F348" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12667,10 +12655,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="F349" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12725,10 +12713,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="F351" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12754,10 +12742,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="F352" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="G352" t="n">
         <v>1</v>
@@ -12783,10 +12771,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F353" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12812,10 +12800,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F354" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -12841,10 +12829,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F355" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -12870,10 +12858,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="F356" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="G356" t="n">
         <v>1</v>
@@ -12899,10 +12887,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="F357" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -12928,10 +12916,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F358" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -12957,10 +12945,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="F359" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -12986,10 +12974,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="F360" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13015,10 +13003,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="F361" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13044,10 +13032,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="F362" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="G362" t="n">
         <v>1</v>
@@ -13073,10 +13061,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="F363" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13102,10 +13090,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="F364" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13131,10 +13119,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="F365" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="G365" t="n">
         <v>1</v>
@@ -13160,10 +13148,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="F366" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="G366" t="n">
         <v>1</v>
@@ -13189,10 +13177,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="F367" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13218,10 +13206,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="F368" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="G368" t="n">
         <v>1</v>
@@ -13247,10 +13235,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="F369" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13276,10 +13264,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="F370" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="G370" t="n">
         <v>1</v>
@@ -13305,10 +13293,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="F371" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13334,10 +13322,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="F372" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="G372" t="n">
         <v>3</v>
@@ -13363,10 +13351,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="F373" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="G373" t="n">
         <v>1</v>
@@ -13392,10 +13380,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="F374" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="G374" t="n">
         <v>1</v>
@@ -13421,10 +13409,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="F375" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13450,10 +13438,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="F376" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13479,10 +13467,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="F377" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="G377" t="n">
         <v>1</v>
@@ -13508,10 +13496,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="F378" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="G378" t="n">
         <v>1</v>
@@ -13537,10 +13525,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F379" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="G379" t="n">
         <v>6</v>
@@ -13566,10 +13554,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F380" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="G380" t="n">
         <v>1</v>
